--- a/xlsx/UseModWiki_intext.xlsx
+++ b/xlsx/UseModWiki_intext.xlsx
@@ -29,7 +29,7 @@
     <t>Wiki引擎</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_UseModWiki</t>
+    <t>政策_政策_维基百科_UseModWiki</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Perl</t>
@@ -41,7 +41,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E7%99%BE%E7%A7%91</t>
   </si>
   <si>
-    <t>維基百科</t>
+    <t>维基百科</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/MediaWiki</t>
